--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H2">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I2">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J2">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>26215.76401633945</v>
+        <v>27366.35574007304</v>
       </c>
       <c r="R2">
-        <v>26215.76401633945</v>
+        <v>109465.4229602922</v>
       </c>
       <c r="S2">
-        <v>0.006935842898607335</v>
+        <v>0.00644412595857786</v>
       </c>
       <c r="T2">
-        <v>0.006935842898607335</v>
+        <v>0.003423622468872064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H3">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I3">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J3">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>148098.878296853</v>
+        <v>161490.844092754</v>
       </c>
       <c r="R3">
-        <v>148098.878296853</v>
+        <v>968945.064556524</v>
       </c>
       <c r="S3">
-        <v>0.03918217118092475</v>
+        <v>0.03802725325852936</v>
       </c>
       <c r="T3">
-        <v>0.03918217118092475</v>
+        <v>0.03030456562819602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H4">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I4">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J4">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>298762.5197909356</v>
+        <v>335435.5222626287</v>
       </c>
       <c r="R4">
-        <v>298762.5197909356</v>
+        <v>2012613.133575772</v>
       </c>
       <c r="S4">
-        <v>0.07904289571612244</v>
+        <v>0.0789870882689899</v>
       </c>
       <c r="T4">
-        <v>0.07904289571612244</v>
+        <v>0.06294615558884273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H5">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I5">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J5">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>204500.2769462396</v>
+        <v>211277.2163120141</v>
       </c>
       <c r="R5">
-        <v>204500.2769462396</v>
+        <v>1267663.297872084</v>
       </c>
       <c r="S5">
-        <v>0.05410415629072557</v>
+        <v>0.0497507599120571</v>
       </c>
       <c r="T5">
-        <v>0.05410415629072557</v>
+        <v>0.03964722770160614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H6">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I6">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J6">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>22950.54236453901</v>
+        <v>25342.36020229183</v>
       </c>
       <c r="R6">
-        <v>22950.54236453901</v>
+        <v>152054.161213751</v>
       </c>
       <c r="S6">
-        <v>0.00607197090189941</v>
+        <v>0.005967523143466358</v>
       </c>
       <c r="T6">
-        <v>0.00607197090189941</v>
+        <v>0.004755620804623653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1367.07446569059</v>
+        <v>1398.2406615</v>
       </c>
       <c r="H7">
-        <v>1367.07446569059</v>
+        <v>2796.481323</v>
       </c>
       <c r="I7">
-        <v>0.2144457368407673</v>
+        <v>0.2082639515313698</v>
       </c>
       <c r="J7">
-        <v>0.2144457368407673</v>
+        <v>0.1565305826915219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>110023.6578755989</v>
+        <v>123525.0047694833</v>
       </c>
       <c r="R7">
-        <v>110023.6578755989</v>
+        <v>494100.0190779333</v>
       </c>
       <c r="S7">
-        <v>0.02910869985248783</v>
+        <v>0.0290872009897492</v>
       </c>
       <c r="T7">
-        <v>0.02910869985248783</v>
+        <v>0.01545339049938124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H8">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I8">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J8">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>28878.20399448436</v>
+        <v>31346.67433202642</v>
       </c>
       <c r="R8">
-        <v>28878.20399448436</v>
+        <v>188080.0459921585</v>
       </c>
       <c r="S8">
-        <v>0.007640238368595364</v>
+        <v>0.007381396328277016</v>
       </c>
       <c r="T8">
-        <v>0.007640238368595364</v>
+        <v>0.005882360420228961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H9">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I9">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J9">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>163139.613865353</v>
+        <v>184978.9919220754</v>
       </c>
       <c r="R9">
-        <v>163139.613865353</v>
+        <v>1664810.927298678</v>
       </c>
       <c r="S9">
-        <v>0.0431614631411969</v>
+        <v>0.04355815348446643</v>
       </c>
       <c r="T9">
-        <v>0.0431614631411969</v>
+        <v>0.05206835129291022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H10">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I10">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J10">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>329104.4650482596</v>
+        <v>384223.1744566131</v>
       </c>
       <c r="R10">
-        <v>329104.4650482596</v>
+        <v>3458008.570109518</v>
       </c>
       <c r="S10">
-        <v>0.08707039266077678</v>
+        <v>0.09047542010781602</v>
       </c>
       <c r="T10">
-        <v>0.08707039266077678</v>
+        <v>0.1081521042719909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H11">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I11">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J11">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>225269.0675313251</v>
+        <v>242006.5775806555</v>
       </c>
       <c r="R11">
-        <v>225269.0675313251</v>
+        <v>2178059.1982259</v>
       </c>
       <c r="S11">
-        <v>0.05959890626644427</v>
+        <v>0.05698679369465534</v>
       </c>
       <c r="T11">
-        <v>0.05959890626644427</v>
+        <v>0.06812061935104921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H12">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I12">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J12">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>25281.37054385024</v>
+        <v>29028.2973594068</v>
       </c>
       <c r="R12">
-        <v>25281.37054385024</v>
+        <v>261254.6762346612</v>
       </c>
       <c r="S12">
-        <v>0.006688632619836514</v>
+        <v>0.006835473686149314</v>
       </c>
       <c r="T12">
-        <v>0.006688632619836514</v>
+        <v>0.008170958056584987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1505.91282677315</v>
+        <v>1601.608744333333</v>
       </c>
       <c r="H13">
-        <v>1505.91282677315</v>
+        <v>4804.826233</v>
       </c>
       <c r="I13">
-        <v>0.2362245758077243</v>
+        <v>0.2385550464139863</v>
       </c>
       <c r="J13">
-        <v>0.2362245758077243</v>
+        <v>0.2689459227913463</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>121197.522008918</v>
+        <v>141491.1847652781</v>
       </c>
       <c r="R13">
-        <v>121197.522008918</v>
+        <v>848947.1085916687</v>
       </c>
       <c r="S13">
-        <v>0.0320649427508745</v>
+        <v>0.03331780911262214</v>
       </c>
       <c r="T13">
-        <v>0.0320649427508745</v>
+        <v>0.02655152939858199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H14">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I14">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J14">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>21977.84684515882</v>
+        <v>24074.14886247081</v>
       </c>
       <c r="R14">
-        <v>21977.84684515882</v>
+        <v>144444.8931748249</v>
       </c>
       <c r="S14">
-        <v>0.005814627140855655</v>
+        <v>0.005668889533148406</v>
       </c>
       <c r="T14">
-        <v>0.005814627140855655</v>
+        <v>0.004517634595597745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H15">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I15">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J15">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>124157.9098407881</v>
+        <v>142063.2932474132</v>
       </c>
       <c r="R15">
-        <v>124157.9098407881</v>
+        <v>1278569.639226719</v>
       </c>
       <c r="S15">
-        <v>0.03284816558229769</v>
+        <v>0.03345252705445796</v>
       </c>
       <c r="T15">
-        <v>0.03284816558229769</v>
+        <v>0.03998833263049734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H16">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I16">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J16">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>250465.9753172342</v>
+        <v>295082.2087314434</v>
       </c>
       <c r="R16">
-        <v>250465.9753172342</v>
+        <v>2655739.87858299</v>
       </c>
       <c r="S16">
-        <v>0.06626519277348021</v>
+        <v>0.06948484260241915</v>
       </c>
       <c r="T16">
-        <v>0.06626519277348021</v>
+        <v>0.08306048132746399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H17">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I17">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J17">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>171441.7235261865</v>
+        <v>185860.3025208755</v>
       </c>
       <c r="R17">
-        <v>171441.7235261865</v>
+        <v>1672742.72268788</v>
       </c>
       <c r="S17">
-        <v>0.04535793272715528</v>
+        <v>0.04376568117142774</v>
       </c>
       <c r="T17">
-        <v>0.04535793272715528</v>
+        <v>0.05231642481401483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H18">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I18">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J18">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>19240.46557585692</v>
+        <v>22293.64252336147</v>
       </c>
       <c r="R18">
-        <v>19240.46557585692</v>
+        <v>200642.7827102532</v>
       </c>
       <c r="S18">
-        <v>0.00509040463009324</v>
+        <v>0.005249622633739302</v>
       </c>
       <c r="T18">
-        <v>0.00509040463009324</v>
+        <v>0.006275270496629934</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1146.07963415252</v>
+        <v>1230.030558333333</v>
       </c>
       <c r="H19">
-        <v>1146.07963415252</v>
+        <v>3690.091675</v>
       </c>
       <c r="I19">
-        <v>0.179779447127542</v>
+        <v>0.1832095372680857</v>
       </c>
       <c r="J19">
-        <v>0.179779447127542</v>
+        <v>0.2065496362597677</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>92237.75056210268</v>
+        <v>108664.7919548685</v>
       </c>
       <c r="R19">
-        <v>92237.75056210268</v>
+        <v>651988.7517292111</v>
       </c>
       <c r="S19">
-        <v>0.02440312427365996</v>
+        <v>0.02558797427289316</v>
       </c>
       <c r="T19">
-        <v>0.02440312427365996</v>
+        <v>0.02039149239556384</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H20">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I20">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J20">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>13103.60551698819</v>
+        <v>13528.41788963365</v>
       </c>
       <c r="R20">
-        <v>13103.60551698819</v>
+        <v>81170.50733780187</v>
       </c>
       <c r="S20">
-        <v>0.003466790028110911</v>
+        <v>0.003185620684358049</v>
       </c>
       <c r="T20">
-        <v>0.003466790028110911</v>
+        <v>0.002538675366304925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H21">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I21">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J21">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>74025.28026651723</v>
+        <v>79832.17221127231</v>
       </c>
       <c r="R21">
-        <v>74025.28026651723</v>
+        <v>718489.5499014506</v>
       </c>
       <c r="S21">
-        <v>0.01958469393201503</v>
+        <v>0.01879857801172269</v>
       </c>
       <c r="T21">
-        <v>0.01958469393201503</v>
+        <v>0.02247136036357958</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H22">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I22">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J22">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>149332.523750282</v>
+        <v>165820.8335555401</v>
       </c>
       <c r="R22">
-        <v>149332.523750282</v>
+        <v>1492387.501999861</v>
       </c>
       <c r="S22">
-        <v>0.03950855385099425</v>
+        <v>0.03904686280254511</v>
       </c>
       <c r="T22">
-        <v>0.03950855385099425</v>
+        <v>0.04667566475273171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H23">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I23">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J23">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>102216.7790169378</v>
+        <v>104443.8104939953</v>
       </c>
       <c r="R23">
-        <v>102216.7790169378</v>
+        <v>939994.2944459574</v>
       </c>
       <c r="S23">
-        <v>0.02704325231266467</v>
+        <v>0.0245940335209333</v>
       </c>
       <c r="T23">
-        <v>0.02704325231266467</v>
+        <v>0.0293991061291025</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H24">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I24">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J24">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>11471.52733593445</v>
+        <v>12527.86605504053</v>
       </c>
       <c r="R24">
-        <v>11471.52733593445</v>
+        <v>112750.7944953648</v>
       </c>
       <c r="S24">
-        <v>0.003034994950348604</v>
+        <v>0.002950014522125686</v>
       </c>
       <c r="T24">
-        <v>0.003034994950348604</v>
+        <v>0.003526375205781028</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>683.314226493339</v>
+        <v>691.2131143333335</v>
       </c>
       <c r="H25">
-        <v>683.314226493339</v>
+        <v>2073.639343</v>
       </c>
       <c r="I25">
-        <v>0.1071878865941075</v>
+        <v>0.1029542184726149</v>
       </c>
       <c r="J25">
-        <v>0.1071878865941075</v>
+        <v>0.1160701385638593</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>54993.88114110845</v>
+        <v>61063.95386410699</v>
       </c>
       <c r="R25">
-        <v>54993.88114110845</v>
+        <v>366383.7231846419</v>
       </c>
       <c r="S25">
-        <v>0.01454960151997403</v>
+        <v>0.01437910893093003</v>
       </c>
       <c r="T25">
-        <v>0.01454960151997403</v>
+        <v>0.01145895674635956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H26">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I26">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J26">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>16635.60857012053</v>
+        <v>17907.67749669457</v>
       </c>
       <c r="R26">
-        <v>16635.60857012053</v>
+        <v>107446.0649801674</v>
       </c>
       <c r="S26">
-        <v>0.004401243751399651</v>
+        <v>0.004216832175623179</v>
       </c>
       <c r="T26">
-        <v>0.004401243751399651</v>
+        <v>0.003360465362577787</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H27">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I27">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J27">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>93978.37757025924</v>
+        <v>105674.4998183051</v>
       </c>
       <c r="R27">
-        <v>93978.37757025924</v>
+        <v>951070.4983647461</v>
       </c>
       <c r="S27">
-        <v>0.02486363785877319</v>
+        <v>0.02488383158893534</v>
       </c>
       <c r="T27">
-        <v>0.02486363785877319</v>
+        <v>0.02974552365146415</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H28">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I28">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J28">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>189584.264321543</v>
+        <v>219498.3946955896</v>
       </c>
       <c r="R28">
-        <v>189584.264321543</v>
+        <v>1975485.552260306</v>
       </c>
       <c r="S28">
-        <v>0.0501578619857395</v>
+        <v>0.05168665190786716</v>
       </c>
       <c r="T28">
-        <v>0.0501578619857395</v>
+        <v>0.06178495949450514</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H29">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I29">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J29">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>129768.736003213</v>
+        <v>138253.126870477</v>
       </c>
       <c r="R29">
-        <v>129768.736003213</v>
+        <v>1244278.141834293</v>
       </c>
       <c r="S29">
-        <v>0.03433260863609235</v>
+        <v>0.03255532348488799</v>
       </c>
       <c r="T29">
-        <v>0.03433260863609235</v>
+        <v>0.03891583742800254</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H30">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I30">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J30">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>14563.61290902978</v>
+        <v>16583.23884327677</v>
       </c>
       <c r="R30">
-        <v>14563.61290902978</v>
+        <v>149249.1495894909</v>
       </c>
       <c r="S30">
-        <v>0.003853060742773067</v>
+        <v>0.003904958370133769</v>
       </c>
       <c r="T30">
-        <v>0.003853060742773067</v>
+        <v>0.00466789172485983</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>867.4977270645589</v>
+        <v>914.9644573333331</v>
       </c>
       <c r="H31">
-        <v>867.4977270645589</v>
+        <v>2744.893372</v>
       </c>
       <c r="I31">
-        <v>0.1360797776250432</v>
+        <v>0.1362813417187949</v>
       </c>
       <c r="J31">
-        <v>0.1360797776250432</v>
+        <v>0.1536429925032817</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>69817.17201644585</v>
+        <v>80830.85556585187</v>
       </c>
       <c r="R31">
-        <v>69817.17201644585</v>
+        <v>484985.1333951113</v>
       </c>
       <c r="S31">
-        <v>0.01847136465026542</v>
+        <v>0.01903374419134747</v>
       </c>
       <c r="T31">
-        <v>0.01847136465026542</v>
+        <v>0.01516831484187221</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H32">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I32">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J32">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>15437.91105707975</v>
+        <v>17178.99447717037</v>
       </c>
       <c r="R32">
-        <v>15437.91105707975</v>
+        <v>68715.97790868147</v>
       </c>
       <c r="S32">
-        <v>0.004084371743193975</v>
+        <v>0.004045244653839459</v>
       </c>
       <c r="T32">
-        <v>0.004084371743193975</v>
+        <v>0.002149149563182306</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H33">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I33">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J33">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>87212.3089517854</v>
+        <v>101374.4886287734</v>
       </c>
       <c r="R33">
-        <v>87212.3089517854</v>
+        <v>608246.9317726404</v>
       </c>
       <c r="S33">
-        <v>0.02307355503114006</v>
+        <v>0.02387128121533698</v>
       </c>
       <c r="T33">
-        <v>0.02307355503114006</v>
+        <v>0.0190234304671228</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H34">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I34">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J34">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>175934.9529102723</v>
+        <v>210566.7645019467</v>
       </c>
       <c r="R34">
-        <v>175934.9529102723</v>
+        <v>1263400.58701168</v>
       </c>
       <c r="S34">
-        <v>0.04654669583533712</v>
+        <v>0.04958346540653148</v>
       </c>
       <c r="T34">
-        <v>0.04654669583533712</v>
+        <v>0.03951390786155694</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H35">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I35">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J35">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>120425.9042260424</v>
+        <v>132627.4556484418</v>
       </c>
       <c r="R35">
-        <v>120425.9042260424</v>
+        <v>795764.7338906509</v>
       </c>
       <c r="S35">
-        <v>0.03186079765266331</v>
+        <v>0.03123061170007201</v>
       </c>
       <c r="T35">
-        <v>0.03186079765266331</v>
+        <v>0.0248882062409085</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H36">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I36">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J36">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>13515.09082530133</v>
+        <v>15908.44868380241</v>
       </c>
       <c r="R36">
-        <v>13515.09082530133</v>
+        <v>95450.69210281449</v>
       </c>
       <c r="S36">
-        <v>0.003575655726313188</v>
+        <v>0.003746061335228456</v>
       </c>
       <c r="T36">
-        <v>0.003575655726313188</v>
+        <v>0.002985300063848699</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>805.0413482735891</v>
+        <v>877.733551</v>
       </c>
       <c r="H37">
-        <v>805.0413482735891</v>
+        <v>1755.467102</v>
       </c>
       <c r="I37">
-        <v>0.1262825760048156</v>
+        <v>0.1307359045951483</v>
       </c>
       <c r="J37">
-        <v>0.1262825760048156</v>
+        <v>0.09826072719022313</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>64790.61389930978</v>
+        <v>77541.75948316214</v>
       </c>
       <c r="R37">
-        <v>64790.61389930978</v>
+        <v>310167.0379326486</v>
       </c>
       <c r="S37">
-        <v>0.01714150001616794</v>
+        <v>0.01825924028413994</v>
       </c>
       <c r="T37">
-        <v>0.01714150001616794</v>
+        <v>0.009700732993603878</v>
       </c>
     </row>
   </sheetData>
